--- a/tests/fixtures/gtin_items.xlsx
+++ b/tests/fixtures/gtin_items.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t xml:space="preserve">Item Code</t>
   </si>
@@ -199,9 +199,6 @@
     <t xml:space="preserve">220003</t>
   </si>
   <si>
-    <t xml:space="preserve">9123456555555</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST INVENTORY ITEM 8</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t xml:space="preserve">220004</t>
   </si>
   <si>
-    <t xml:space="preserve">9123456666666</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST INVENTORY ITEM 9</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">220005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9123456777777</t>
   </si>
   <si>
     <t xml:space="preserve">TEST INVENTORY ITEM 10</t>
@@ -261,6 +252,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -392,12 +384,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -470,7 +462,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,83 +722,77 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.3" bottom="1.0875" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.3" bottom="1.0875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
